--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -425,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>38</v>
@@ -445,241 +445,241 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8">
         <v>37</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>37</v>
+      </c>
+      <c r="H8">
         <v>36</v>
-      </c>
-      <c r="F8">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>28</v>
-      </c>
-      <c r="H8">
-        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9">
         <v>31</v>
       </c>
-      <c r="F9">
-        <v>24</v>
-      </c>
       <c r="G9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>67</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12">
         <v>40</v>
@@ -705,80 +705,444 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>67</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
+      <c r="H17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>36</v>
+      </c>
+      <c r="H19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>49</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>39</v>
+      </c>
+      <c r="H21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>54</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <v>41</v>
+      </c>
+      <c r="G23">
+        <v>42</v>
+      </c>
+      <c r="H23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>49</v>
+      </c>
+      <c r="H24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>27</v>
+      </c>
+      <c r="G25">
+        <v>41</v>
+      </c>
+      <c r="H25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>17</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>72</v>
-      </c>
-      <c r="D15">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>71</v>
+      </c>
+      <c r="D28">
         <v>42</v>
       </c>
-      <c r="E15">
+      <c r="E28">
         <v>37</v>
       </c>
-      <c r="F15">
+      <c r="F28">
         <v>26</v>
       </c>
-      <c r="G15">
+      <c r="G28">
         <v>33</v>
       </c>
-      <c r="H15">
+      <c r="H28">
         <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
